--- a/db_feed/new_template_v2.xlsx
+++ b/db_feed/new_template_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Dropbox (GaTech)\Aaron and Rahul Shared Files\ofet-db\mongodb_v2022\Database Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0386CA-3F99-4868-8B15-9606968C0C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29E1629-DE45-4F6B-BDF9-B5E1B560738E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="6" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="380">
   <si>
     <t>Solution Information</t>
   </si>
@@ -1323,6 +1323,30 @@
   </si>
   <si>
     <t>Film - (100) coherence length</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Semiconductor Parameter Analyzer</t>
+  </si>
+  <si>
+    <t>Time of Flight</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>Transfer Curve - mobility regime</t>
+  </si>
+  <si>
+    <t>Measurement Regime</t>
+  </si>
+  <si>
+    <t>saturation</t>
+  </si>
+  <si>
+    <t>linear</t>
   </si>
 </sst>
 </file>
@@ -2611,7 +2635,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2652,8 +2676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5882D5-D74D-473F-B8FF-8824B9621A3C}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A28" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3153,7 +3177,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>361</v>
       </c>
@@ -3161,46 +3185,67 @@
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" s="23" t="s">
         <v>97</v>
       </c>
       <c r="B53" s="23" t="s">
         <v>94</v>
       </c>
+      <c r="C53" t="s">
+        <v>372</v>
+      </c>
+      <c r="D53" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>159</v>
       </c>
       <c r="B55" t="s">
         <v>163</v>
       </c>
+      <c r="C55" t="s">
+        <v>373</v>
+      </c>
+      <c r="D55" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>160</v>
       </c>
       <c r="B56" t="s">
         <v>164</v>
       </c>
+      <c r="C56" t="s">
+        <v>374</v>
+      </c>
+      <c r="D56" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>161</v>
       </c>
       <c r="B57" t="s">
         <v>364</v>
+      </c>
+      <c r="C57" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -5006,10 +5051,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74937810-402C-794A-86DB-3B61877792EA}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -5062,7 +5107,7 @@
       <c r="A5" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="30"/>
       <c r="G5" s="64"/>
     </row>
     <row r="6" spans="1:7">
@@ -5222,29 +5267,24 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="42" t="s">
-        <v>281</v>
+        <v>376</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" t="s">
-        <v>98</v>
-      </c>
+      <c r="B21" s="31"/>
       <c r="G21" s="64"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="64" t="s">
-        <v>283</v>
-      </c>
+      <c r="G22" s="64"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="42" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" t="s">
@@ -5256,7 +5296,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" t="s">
@@ -5266,18 +5306,30 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A25" s="50" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A26" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="80" t="s">
+      <c r="B26" s="86"/>
+      <c r="C26" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="82"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5286,7 +5338,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F576FF07-91DD-47FB-9E5A-B5DCBCB1E130}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$C$45:$C$49</xm:f>
@@ -5297,7 +5349,19 @@
           <x14:formula1>
             <xm:f>'Dropdown Items'!$B$55:$B$57</xm:f>
           </x14:formula1>
-          <xm:sqref>D11:D20 D25</xm:sqref>
+          <xm:sqref>D26 D11:D20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{53FBF05B-62BD-4E4C-BFDB-E8E20678C5EF}">
+          <x14:formula1>
+            <xm:f>'Dropdown Items'!$C$55:$C$57</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A804F1F-40D3-43ED-AAA3-2475022AB8DB}">
+          <x14:formula1>
+            <xm:f>'Dropdown Items'!$D$55:$D$56</xm:f>
+          </x14:formula1>
+          <xm:sqref>B21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5309,7 +5373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD2D44-9B1B-421A-86D6-11D29F42E873}">
   <dimension ref="A1:XEX44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
